--- a/EDA_Entrega/data/correlation_age_lung_disease.xlsx
+++ b/EDA_Entrega/data/correlation_age_lung_disease.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -482,12 +487,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6612340712364536</v>
+        <v>-0.6612340712365312</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>-17710248.193477</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1526151219.699221</v>
       </c>
     </row>
@@ -508,12 +516,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6612340675007771</v>
+        <v>-0.6612340675008861</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>-17710.24822035045</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1526151.205008876</v>
       </c>
     </row>
@@ -534,12 +545,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.07017974361187553</v>
+        <v>-0.07017974361187541</v>
       </c>
       <c r="E4" t="n">
+        <v>6.276022403610215e-96</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.745333131198144</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>245.4664269847991</v>
       </c>
     </row>
@@ -560,12 +574,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.04738562592728785</v>
+        <v>0.04738562592727751</v>
       </c>
       <c r="E5" t="n">
+        <v>1.049118497162857e-38</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.0002811246395852647</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.03321772940010741</v>
       </c>
     </row>
@@ -586,12 +603,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.05874544825831785</v>
+        <v>0.05874544825833206</v>
       </c>
       <c r="E6" t="n">
+        <v>1.386940504502502e-58</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.0009087861297822251</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1469846920580576</v>
       </c>
     </row>
@@ -612,12 +632,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1212989146033786</v>
+        <v>-0.1212989146034053</v>
       </c>
       <c r="E7" t="n">
+        <v>6.978950216244309e-251</v>
+      </c>
+      <c r="F7" t="n">
         <v>-0.003814027252799851</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.212302958223657</v>
       </c>
     </row>
@@ -638,12 +661,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.01513786325676975</v>
+        <v>-0.01513786325677398</v>
       </c>
       <c r="E8" t="n">
+        <v>2.610678909967911e-05</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.04432678625581354</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>84.12970151125764</v>
       </c>
     </row>
@@ -664,12 +690,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1873784744716905</v>
+        <v>-0.1873784744716887</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>-0.2643748800062655</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>39.31129090302161</v>
       </c>
     </row>
@@ -690,12 +719,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.02076529467644812</v>
+        <v>-0.02076529467644105</v>
       </c>
       <c r="E10" t="n">
+        <v>1.197958241013711e-08</v>
+      </c>
+      <c r="F10" t="n">
         <v>-0.005095639490271368</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.4083141579269</v>
       </c>
     </row>
@@ -716,12 +748,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.08201561052376417</v>
+        <v>0.08201561052374998</v>
       </c>
       <c r="E11" t="n">
+        <v>1.38517486370799e-112</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.001769683661231434</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.4418635877490412</v>
       </c>
     </row>
@@ -742,12 +777,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01383522396602567</v>
+        <v>0.01383522396602724</v>
       </c>
       <c r="E12" t="n">
+        <v>0.0001463986996937964</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.002030537907825702</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.766665511573005</v>
       </c>
     </row>
@@ -768,12 +806,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.08005844745242223</v>
+        <v>-0.08005844745242452</v>
       </c>
       <c r="E13" t="n">
+        <v>4.614398780857446e-109</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.1138720393039789</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>30.70773983814311</v>
       </c>
     </row>
@@ -794,12 +835,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.05082061504873329</v>
+        <v>0.05082061504873749</v>
       </c>
       <c r="E14" t="n">
+        <v>2.885991443338452e-44</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.003195292478385361</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.6533204193804362</v>
       </c>
     </row>
@@ -820,12 +864,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.07697246887279917</v>
+        <v>0.07697246887278927</v>
       </c>
       <c r="E15" t="n">
+        <v>1.528740915233592e-101</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.002046341065176105</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.3345250437477477</v>
       </c>
     </row>
@@ -846,12 +893,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2289623154386433</v>
+        <v>0.2289623154386419</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.1516780274093901</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>7.246538181732072</v>
       </c>
     </row>
@@ -872,12 +922,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.008108034911809678</v>
+        <v>0.008108034911809713</v>
       </c>
       <c r="E17" t="n">
+        <v>0.02434771473166533</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.0003082071318174714</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9.282087695907171</v>
       </c>
     </row>
@@ -898,12 +951,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.1194206853994325</v>
+        <v>-0.1194206853994454</v>
       </c>
       <c r="E18" t="n">
+        <v>3.942631288050854e-243</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.480400842465023</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>220.6086845991857</v>
       </c>
     </row>
@@ -924,12 +980,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.02332767986971485</v>
+        <v>-0.02332767986971268</v>
       </c>
       <c r="E19" t="n">
+        <v>8.993047676532698e-11</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.006938985015870581</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>101.3478334105114</v>
       </c>
     </row>
@@ -950,12 +1009,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.05404739872279833</v>
+        <v>-0.05404739872280404</v>
       </c>
       <c r="E20" t="n">
+        <v>5.071403025861181e-51</v>
+      </c>
+      <c r="F20" t="n">
         <v>-2.031306170310486</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>461.857430840433</v>
       </c>
     </row>
@@ -976,12 +1038,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1044168473528903</v>
+        <v>0.1044168473529001</v>
       </c>
       <c r="E21" t="n">
+        <v>8.123284942328706e-186</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.02604572822576242</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>22.23617359388824</v>
       </c>
     </row>
@@ -1002,12 +1067,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.07336641878698238</v>
+        <v>0.07336641878699077</v>
       </c>
       <c r="E22" t="n">
+        <v>1.125282601915337e-92</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.004197945064571508</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.6702394507735958</v>
       </c>
     </row>
@@ -1028,12 +1096,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.02056814321091419</v>
+        <v>0.02056814321091815</v>
       </c>
       <c r="E23" t="n">
+        <v>1.100535355449358e-08</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.01962452208802136</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>3.125514290324394</v>
       </c>
     </row>
@@ -1054,12 +1125,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2232270278028673</v>
+        <v>0.2232270278028911</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.01171423912542581</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.3446523538901434</v>
       </c>
     </row>
@@ -1080,12 +1154,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.3115262028560241</v>
+        <v>-0.3115262028559871</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>-0.07144229075811821</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>7.385814205830748</v>
       </c>
     </row>
@@ -1106,12 +1183,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.09099255396513083</v>
+        <v>0.09099255396512729</v>
       </c>
       <c r="E26" t="n">
+        <v>3.151958112129589e-138</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.01881405927162554</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.831508502717529</v>
       </c>
     </row>
@@ -1132,12 +1212,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.02571897312471137</v>
+        <v>-0.02571897312471587</v>
       </c>
       <c r="E27" t="n">
+        <v>9.24131445421274e-13</v>
+      </c>
+      <c r="F27" t="n">
         <v>-0.4664602273266272</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>184.5289452227568</v>
       </c>
     </row>
@@ -1158,12 +1241,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.002035772386777901</v>
+        <v>-0.002035772386777139</v>
       </c>
       <c r="E28" t="n">
+        <v>0.5721274968871404</v>
+      </c>
+      <c r="F28" t="n">
         <v>-0.008702445963235907</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>111.1359547783511</v>
       </c>
     </row>
@@ -1184,12 +1270,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.1041684392181747</v>
+        <v>-0.104168439218171</v>
       </c>
       <c r="E29" t="n">
+        <v>1.733740406820123e-181</v>
+      </c>
+      <c r="F29" t="n">
         <v>-0.0432908857082792</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>44.69607305423917</v>
       </c>
     </row>
@@ -1210,12 +1299,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.01400454467700759</v>
+        <v>0.0140045446770077</v>
       </c>
       <c r="E30" t="n">
+        <v>9.955327674473596e-05</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.02874804327154097</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>54.81742825520011</v>
       </c>
     </row>
@@ -1236,12 +1328,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.129214846969656</v>
+        <v>-0.1292148469696524</v>
       </c>
       <c r="E31" t="n">
+        <v>4.613611493397783e-279</v>
+      </c>
+      <c r="F31" t="n">
         <v>-0.01869569907889685</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>14.94434602685283</v>
       </c>
     </row>
@@ -1262,12 +1357,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.0722672837570051</v>
+        <v>0.07226728375698066</v>
       </c>
       <c r="E32" t="n">
+        <v>1.260269857242214e-89</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.003098531539066187</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.977372916064251</v>
       </c>
     </row>
@@ -1288,12 +1386,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.1115204186575433</v>
+        <v>-0.1115204186575333</v>
       </c>
       <c r="E33" t="n">
+        <v>1.123800004838531e-206</v>
+      </c>
+      <c r="F33" t="n">
         <v>-0.3875106034024812</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>128.2266671877556</v>
       </c>
     </row>
@@ -1314,12 +1415,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.152577313100988</v>
+        <v>-0.1525773131009887</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>-0.1392164872578687</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>39.8042530986592</v>
       </c>
     </row>
@@ -1340,12 +1444,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.09300325230209124</v>
+        <v>0.093003252302096</v>
       </c>
       <c r="E35" t="n">
+        <v>1.579344611549086e-144</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.0199428798668444</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>29.10573593061316</v>
       </c>
     </row>
@@ -1366,12 +1473,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.08648337885600782</v>
+        <v>-0.08648337885602594</v>
       </c>
       <c r="E36" t="n">
+        <v>1.300557134203206e-124</v>
+      </c>
+      <c r="F36" t="n">
         <v>-0.01048646776511655</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>33.49049645182599</v>
       </c>
     </row>
@@ -1392,12 +1502,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.153430354892577</v>
+        <v>0.1534303548925817</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.09862736780522284</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>86.33857182684321</v>
       </c>
     </row>
@@ -1418,12 +1531,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1341606412696321</v>
+        <v>0.1341606412696337</v>
       </c>
       <c r="E38" t="n">
+        <v>1.652821893626765e-299</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.03143108846223484</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6.281586563632543</v>
       </c>
     </row>
@@ -1444,12 +1560,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.007422969257488242</v>
+        <v>0.00742296925748913</v>
       </c>
       <c r="E39" t="n">
+        <v>0.04217384860937212</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.0007323364567766883</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>11.1911056122489</v>
       </c>
     </row>
@@ -1470,12 +1589,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.01537694111345542</v>
+        <v>0.01537694111345499</v>
       </c>
       <c r="E40" t="n">
+        <v>1.928047835249261e-05</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.004178246006664113</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>139.2020568962393</v>
       </c>
     </row>
@@ -1496,12 +1618,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.0877103883746473</v>
+        <v>0.0877103883746512</v>
       </c>
       <c r="E41" t="n">
+        <v>1.634228749413892e-128</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.08530088510806928</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>51.46668747535816</v>
       </c>
     </row>
@@ -1522,12 +1647,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.07416506602414054</v>
+        <v>0.07416506602414331</v>
       </c>
       <c r="E42" t="n">
+        <v>3.397031994466112e-92</v>
+      </c>
+      <c r="F42" t="n">
         <v>13.04742564397694</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-566.6823549824442</v>
       </c>
     </row>
@@ -1548,12 +1676,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.01228998521009802</v>
+        <v>0.01228998521009634</v>
       </c>
       <c r="E43" t="n">
+        <v>0.0007687044804572574</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.002856780122606215</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>13.73544258686091</v>
       </c>
     </row>
@@ -1574,12 +1705,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.1215235843406137</v>
+        <v>-0.1215235843406273</v>
       </c>
       <c r="E44" t="n">
+        <v>1.171966591339238e-246</v>
+      </c>
+      <c r="F44" t="n">
         <v>-0.7885466210833246</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>283.7526230711738</v>
       </c>
     </row>
@@ -1600,12 +1734,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.1888300507254561</v>
+        <v>-0.1888300507254654</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>-0.009392610650633605</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5.144827267855966</v>
       </c>
     </row>
@@ -1626,12 +1763,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.07857799407726987</v>
+        <v>0.0785779940772704</v>
       </c>
       <c r="E46" t="n">
+        <v>6.935108079098793e-104</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.0108566950278652</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>13.21829709950688</v>
       </c>
     </row>
@@ -1652,12 +1792,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.06680685266199674</v>
+        <v>-0.06680685266200838</v>
       </c>
       <c r="E47" t="n">
+        <v>4.448586401850129e-77</v>
+      </c>
+      <c r="F47" t="n">
         <v>-0.6664747864826732</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>196.1562772829523</v>
       </c>
     </row>
@@ -1678,12 +1821,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.1445907129045633</v>
+        <v>-0.1445907129045501</v>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>-0.006274227471931312</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7.311819456630257</v>
       </c>
     </row>
@@ -1704,12 +1850,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.0008743134131959737</v>
+        <v>0.0008743134131957108</v>
       </c>
       <c r="E49" t="n">
+        <v>0.8103491828702393</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.000264605284573591</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>6.763825262164663</v>
       </c>
     </row>
@@ -1730,12 +1879,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.01393011446267766</v>
+        <v>0.01393011446267694</v>
       </c>
       <c r="E50" t="n">
+        <v>0.0001154003589308861</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.008445760838112043</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>1.403680028145572</v>
       </c>
     </row>
@@ -1756,12 +1908,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1346162745965598</v>
+        <v>0.1346162745965427</v>
       </c>
       <c r="E51" t="n">
+        <v>1.323403140452205e-306</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.1740393790361037</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>18.760800707724</v>
       </c>
     </row>
@@ -1782,12 +1937,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.1810541245982884</v>
+        <v>-0.1810541245982739</v>
       </c>
       <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>-255.5932523855774</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>65518.64124722072</v>
       </c>
     </row>
@@ -1808,12 +1966,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.02623657745348436</v>
+        <v>0.02623657745348302</v>
       </c>
       <c r="E53" t="n">
+        <v>3.284217905337263e-13</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.02346426380076735</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2.535863113394248</v>
       </c>
     </row>
@@ -1834,12 +1995,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.01796311484265539</v>
+        <v>-0.01796311484265401</v>
       </c>
       <c r="E54" t="n">
+        <v>6.184371691000426e-07</v>
+      </c>
+      <c r="F54" t="n">
         <v>-0.7951008238998371</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>642.7330604040662</v>
       </c>
     </row>
@@ -1860,12 +2024,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.0354417784476321</v>
+        <v>0.03544177844763122</v>
       </c>
       <c r="E55" t="n">
+        <v>7.678436479609488e-23</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.1771707718811557</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-4.530151341125415</v>
       </c>
     </row>
@@ -1886,12 +2053,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1015317796124871</v>
+        <v>0.1015317796124791</v>
       </c>
       <c r="E56" t="n">
+        <v>1.454449533564874e-175</v>
+      </c>
+      <c r="F56" t="n">
         <v>17.86143381152769</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>622.3240217670555</v>
       </c>
     </row>
@@ -1912,12 +2082,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.1656148132790522</v>
+        <v>-0.1656148132790518</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.6270840033645715</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>146.1118086924928</v>
       </c>
     </row>
@@ -1938,12 +2111,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.03782302269208213</v>
+        <v>-0.03782302269208056</v>
       </c>
       <c r="E58" t="n">
+        <v>2.527865079482883e-19</v>
+      </c>
+      <c r="F58" t="n">
         <v>-0.002208619248393003</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>1.088205374025752</v>
       </c>
     </row>
@@ -1964,12 +2140,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.04597187239010401</v>
+        <v>0.0459718723900998</v>
       </c>
       <c r="E59" t="n">
+        <v>4.025442612013276e-29</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.02627042154427503</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>11.24867932273389</v>
       </c>
     </row>
@@ -1990,12 +2169,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.1375764630118998</v>
+        <v>-0.1375764630119064</v>
       </c>
       <c r="E60" t="n">
+        <v>5.373020772732483e-270</v>
+      </c>
+      <c r="F60" t="n">
         <v>-136.5411217457291</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>45694.31325392157</v>
       </c>
     </row>
@@ -2016,12 +2198,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.0114085228549996</v>
+        <v>0.01140852285499988</v>
       </c>
       <c r="E61" t="n">
+        <v>0.003762173886727451</v>
+      </c>
+      <c r="F61" t="n">
         <v>0.07449889835701796</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>217.1010065992542</v>
       </c>
     </row>
@@ -2042,12 +2227,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.02744072020841172</v>
+        <v>0.02744072020841489</v>
       </c>
       <c r="E62" t="n">
+        <v>2.857609120387969e-13</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.0001474784272591246</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.04057391163522332</v>
       </c>
     </row>
@@ -2068,12 +2256,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.03451030664128143</v>
+        <v>0.03451030664128418</v>
       </c>
       <c r="E63" t="n">
+        <v>4.23708246956403e-20</v>
+      </c>
+      <c r="F63" t="n">
         <v>0.000112125701056582</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.02882541190583533</v>
       </c>
     </row>
@@ -2094,12 +2285,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.002757871865433005</v>
+        <v>-0.002757871865433116</v>
       </c>
       <c r="E64" t="n">
+        <v>0.463225444914601</v>
+      </c>
+      <c r="F64" t="n">
         <v>-6.771506422270115e-06</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.007428277990913527</v>
       </c>
     </row>
@@ -2120,12 +2314,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.07556042925741267</v>
+        <v>0.07556042925742174</v>
       </c>
       <c r="E65" t="n">
+        <v>4.130713447479878e-90</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.001326983064789149</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.1396952468791542</v>
       </c>
     </row>
@@ -2146,12 +2343,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.01082133691173804</v>
+        <v>0.01082133691173485</v>
       </c>
       <c r="E66" t="n">
+        <v>0.003997402517598916</v>
+      </c>
+      <c r="F66" t="n">
         <v>2.583182150340884e-06</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.00149527873867037</v>
       </c>
     </row>
@@ -2172,12 +2372,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.07287596635959333</v>
+        <v>0.07287596635957601</v>
       </c>
       <c r="E67" t="n">
+        <v>6.412796771739471e-84</v>
+      </c>
+      <c r="F67" t="n">
         <v>0.001229753803351858</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.1333251745002305</v>
       </c>
     </row>
@@ -2198,12 +2401,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.0906754168184566</v>
+        <v>0.0906754168184668</v>
       </c>
       <c r="E68" t="n">
+        <v>4.538461314138617e-129</v>
+      </c>
+      <c r="F68" t="n">
         <v>0.001366860217566841</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.100250092569448</v>
       </c>
     </row>
@@ -2224,12 +2430,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.08696108449295158</v>
+        <v>0.08696108449294304</v>
       </c>
       <c r="E69" t="n">
+        <v>8.297109879212724e-119</v>
+      </c>
+      <c r="F69" t="n">
         <v>0.001243076276916068</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.09846470998887209</v>
       </c>
     </row>
@@ -2250,12 +2459,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.08731430363576102</v>
+        <v>0.0873143036357534</v>
       </c>
       <c r="E70" t="n">
+        <v>9.209739926657846e-120</v>
+      </c>
+      <c r="F70" t="n">
         <v>0.0001329485730380645</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>-0.001346506528392019</v>
       </c>
     </row>
@@ -2276,12 +2488,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.02359825454376313</v>
+        <v>0.0235982545437653</v>
       </c>
       <c r="E71" t="n">
+        <v>2.182524417991009e-10</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.0003025591420243459</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.6920284172530499</v>
       </c>
     </row>
@@ -2302,12 +2517,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.04811319577067471</v>
+        <v>-0.0481131957706806</v>
       </c>
       <c r="E72" t="n">
+        <v>2.407954242762267e-38</v>
+      </c>
+      <c r="F72" t="n">
         <v>-0.0004489681515454068</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.1865941463002815</v>
       </c>
     </row>
@@ -2328,12 +2546,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.0324289865857996</v>
+        <v>-0.03242898658580397</v>
       </c>
       <c r="E73" t="n">
+        <v>2.674630742173776e-18</v>
+      </c>
+      <c r="F73" t="n">
         <v>-4.661760088451921e-05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.01175397264253383</v>
       </c>
     </row>
@@ -2354,12 +2575,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-0.001605753252104138</v>
+        <v>-0.001605753252104274</v>
       </c>
       <c r="E74" t="n">
+        <v>0.665823752133423</v>
+      </c>
+      <c r="F74" t="n">
         <v>-1.129978310292359e-05</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.9348143713896877</v>
       </c>
     </row>
@@ -2380,12 +2604,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.01891017365956322</v>
+        <v>-0.01891017365956286</v>
       </c>
       <c r="E75" t="n">
+        <v>3.645279319299951e-07</v>
+      </c>
+      <c r="F75" t="n">
         <v>-0.0001576501114693157</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.9635696698128176</v>
       </c>
     </row>
@@ -2406,12 +2633,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.0926224697279185</v>
+        <v>0.09262246972792026</v>
       </c>
       <c r="E76" t="n">
+        <v>1.439814720784953e-137</v>
+      </c>
+      <c r="F76" t="n">
         <v>0.000391804353837628</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.01238955648530504</v>
       </c>
     </row>
@@ -2432,12 +2662,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.007353922798825734</v>
+        <v>0.007353922798826393</v>
       </c>
       <c r="E77" t="n">
+        <v>0.04847097395245731</v>
+      </c>
+      <c r="F77" t="n">
         <v>0.001567117531365779</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.07653789176356317</v>
       </c>
     </row>
@@ -2458,12 +2691,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.03611343247708633</v>
+        <v>-0.03611343247709035</v>
       </c>
       <c r="E78" t="n">
+        <v>2.885155210842726e-18</v>
+      </c>
+      <c r="F78" t="n">
         <v>-0.0001004449310392734</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.03431137495207554</v>
       </c>
     </row>
@@ -2484,12 +2720,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.2014185644827375</v>
+        <v>-0.2014185644827265</v>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>-0.004035614241911558</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.6220588917743048</v>
       </c>
     </row>
@@ -2510,12 +2749,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.1012780645894498</v>
+        <v>-0.101278064589461</v>
       </c>
       <c r="E80" t="n">
+        <v>1.91555027628788e-163</v>
+      </c>
+      <c r="F80" t="n">
         <v>-0.002515443953433321</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.5218931810053253</v>
       </c>
     </row>
@@ -2536,12 +2778,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.06293067514299874</v>
+        <v>-0.06293067514299502</v>
       </c>
       <c r="E81" t="n">
+        <v>7.421988565606563e-64</v>
+      </c>
+      <c r="F81" t="n">
         <v>-0.0004224445355464231</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.0631101830212763</v>
       </c>
     </row>
@@ -2562,12 +2807,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.1883980688839681</v>
+        <v>-0.1883980688839677</v>
       </c>
       <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
         <v>-0.008932090043208791</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>1.567681278405035</v>
       </c>
     </row>
@@ -2588,12 +2836,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.009268093017755918</v>
+        <v>-0.009268093017754657</v>
       </c>
       <c r="E83" t="n">
+        <v>0.01300366797519126</v>
+      </c>
+      <c r="F83" t="n">
         <v>-9.949710642950154e-05</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.02528225403400579</v>
       </c>
     </row>
@@ -2614,12 +2865,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.01416300310745569</v>
+        <v>0.0141630031074546</v>
       </c>
       <c r="E84" t="n">
+        <v>0.0001473352391128104</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.002865935179893754</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>-0.1507316803800991</v>
       </c>
     </row>
@@ -2640,12 +2894,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.3393517618199438</v>
+        <v>-0.3393517618199192</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>-0.002298388149760024</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.2247809052634059</v>
       </c>
     </row>
@@ -2666,12 +2923,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.0967497130653123</v>
+        <v>-0.09674971306530168</v>
       </c>
       <c r="E86" t="n">
+        <v>1.028894002690357e-148</v>
+      </c>
+      <c r="F86" t="n">
         <v>-0.003043043409367297</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.6387852122852621</v>
       </c>
     </row>
@@ -2692,12 +2952,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.1976123439371538</v>
+        <v>-0.1976123439371606</v>
       </c>
       <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
         <v>-0.0122988596026631</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2.24649777279597</v>
       </c>
     </row>
@@ -2718,12 +2981,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.1319800189113931</v>
+        <v>-0.1319800189113703</v>
       </c>
       <c r="E88" t="n">
+        <v>2.185618227115811e-276</v>
+      </c>
+      <c r="F88" t="n">
         <v>-0.001443941159354229</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.1930282967791473</v>
       </c>
     </row>
@@ -2744,12 +3010,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.08954874357300814</v>
+        <v>-0.0895487435730109</v>
       </c>
       <c r="E89" t="n">
+        <v>7.370910164145162e-131</v>
+      </c>
+      <c r="F89" t="n">
         <v>-0.0004647309361231216</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.1011946890713145</v>
       </c>
     </row>
@@ -2770,12 +3039,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.02144910971142214</v>
+        <v>0.02144910971142495</v>
       </c>
       <c r="E90" t="n">
+        <v>5.919554104754222e-09</v>
+      </c>
+      <c r="F90" t="n">
         <v>0.0002498062030651</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.2303132585170216</v>
       </c>
     </row>
@@ -2796,12 +3068,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.02273875557794992</v>
+        <v>-0.02273875557795235</v>
       </c>
       <c r="E91" t="n">
+        <v>6.873375978195765e-10</v>
+      </c>
+      <c r="F91" t="n">
         <v>-0.0003074501959660454</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.7018821669183261</v>
       </c>
     </row>
@@ -2822,12 +3097,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.1541572124835626</v>
+        <v>-0.1541572124835765</v>
       </c>
       <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
         <v>-0.002025654346258817</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.8368996559229778</v>
       </c>
     </row>
@@ -2848,12 +3126,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.06665706537814696</v>
+        <v>-0.066657065378161</v>
       </c>
       <c r="E93" t="n">
+        <v>4.658869538343793e-73</v>
+      </c>
+      <c r="F93" t="n">
         <v>-0.001116936789958784</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.7272823606418122</v>
       </c>
     </row>
@@ -2874,12 +3155,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.09271221444012512</v>
+        <v>0.09271221444013128</v>
       </c>
       <c r="E94" t="n">
+        <v>7.228746664622799e-135</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.0002400735785289578</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.01906161436927007</v>
       </c>
     </row>
@@ -2900,12 +3184,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1023588754529747</v>
+        <v>0.1023588754529839</v>
       </c>
       <c r="E95" t="n">
+        <v>4.19084922925492e-164</v>
+      </c>
+      <c r="F95" t="n">
         <v>0.0002153129277329025</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.01448586361775816</v>
       </c>
     </row>
@@ -2926,12 +3213,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.04657385747756196</v>
+        <v>0.04657385747756636</v>
       </c>
       <c r="E96" t="n">
+        <v>2.748980409037723e-35</v>
+      </c>
+      <c r="F96" t="n">
         <v>2.785576148013252e-05</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.00588697489740095</v>
       </c>
     </row>
@@ -2952,12 +3242,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.01105060826436929</v>
+        <v>-0.01105060826437148</v>
       </c>
       <c r="E97" t="n">
+        <v>0.01485118122910347</v>
+      </c>
+      <c r="F97" t="n">
         <v>-0.001134849512228217</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>6.042423644669392</v>
       </c>
     </row>
@@ -2978,12 +3271,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.04519352438577563</v>
+        <v>0.04519352438578132</v>
       </c>
       <c r="E98" t="n">
+        <v>1.175259766212411e-24</v>
+      </c>
+      <c r="F98" t="n">
         <v>0.08056914582929642</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>49.01941861454517</v>
       </c>
     </row>
@@ -3004,12 +3300,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.08715197324625182</v>
+        <v>-0.08715197324625071</v>
       </c>
       <c r="E99" t="n">
+        <v>1.067748954227655e-88</v>
+      </c>
+      <c r="F99" t="n">
         <v>-0.3486464526648833</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>213.4650923285001</v>
       </c>
     </row>
@@ -3030,12 +3329,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.01011286302637545</v>
+        <v>-0.01011286302637652</v>
       </c>
       <c r="E100" t="n">
+        <v>0.02018780542165631</v>
+      </c>
+      <c r="F100" t="n">
         <v>-0.003973610351963697</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>3.584594392056793</v>
       </c>
     </row>
@@ -3056,12 +3358,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2293421646512696</v>
+        <v>0.2293421646512687</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.01168706690238088</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.3201727006649101</v>
       </c>
     </row>
@@ -3082,12 +3387,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.5662596074967088</v>
+        <v>-0.5662596074966979</v>
       </c>
       <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
         <v>-15147208.9139124</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>1323248009.336575</v>
       </c>
     </row>
@@ -3108,12 +3416,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.5662596003457231</v>
+        <v>-0.5662596003457128</v>
       </c>
       <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
         <v>-15147.2088983449</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1323247.990984595</v>
       </c>
     </row>
@@ -3134,12 +3445,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.0622728568871378</v>
+        <v>-0.06227285688713793</v>
       </c>
       <c r="E104" t="n">
+        <v>8.12605693697283e-10</v>
+      </c>
+      <c r="F104" t="n">
         <v>-0.402119606770185</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>215.7509578465312</v>
       </c>
     </row>
@@ -3160,12 +3474,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-0.01614574114776617</v>
+        <v>-0.0161457411477666</v>
       </c>
       <c r="E105" t="n">
+        <v>0.1386356910981184</v>
+      </c>
+      <c r="F105" t="n">
         <v>-9.906655714876662e-05</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>0.07060435940379403</v>
       </c>
     </row>
@@ -3186,12 +3503,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.02025768065238209</v>
+        <v>0.02025768065238185</v>
       </c>
       <c r="E106" t="n">
+        <v>0.06315364488222039</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.0003169414104919954</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.2171158405767392</v>
       </c>
     </row>
@@ -3212,12 +3532,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.04568212556711627</v>
+        <v>-0.04568212556711591</v>
       </c>
       <c r="E107" t="n">
+        <v>2.009946249061681e-05</v>
+      </c>
+      <c r="F107" t="n">
         <v>-0.001414625604656201</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>3.989863444753531</v>
       </c>
     </row>
@@ -3238,12 +3561,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-0.03251865092666692</v>
+        <v>-0.03251865092666635</v>
       </c>
       <c r="E108" t="n">
+        <v>0.002411731303312321</v>
+      </c>
+      <c r="F108" t="n">
         <v>-0.09428921500821143</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>87.88728269690647</v>
       </c>
     </row>
@@ -3264,12 +3590,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.1728051669848275</v>
+        <v>-0.1728051669848268</v>
       </c>
       <c r="E109" t="n">
+        <v>3.843507733281667e-59</v>
+      </c>
+      <c r="F109" t="n">
         <v>-0.2083976367106031</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>34.23553179424704</v>
       </c>
     </row>
@@ -3290,12 +3619,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.1174015941733325</v>
+        <v>-0.117401594173335</v>
       </c>
       <c r="E110" t="n">
+        <v>3.26743159267447e-27</v>
+      </c>
+      <c r="F110" t="n">
         <v>-0.01185059065690041</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>2.822215278088954</v>
       </c>
     </row>
@@ -3316,12 +3648,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.1292809707869854</v>
+        <v>0.1292809707869835</v>
       </c>
       <c r="E111" t="n">
+        <v>1.089508756896723e-32</v>
+      </c>
+      <c r="F111" t="n">
         <v>0.00265642308359267</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.4151239078221806</v>
       </c>
     </row>
@@ -3342,12 +3677,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.0263403737812124</v>
+        <v>0.02634037378121269</v>
       </c>
       <c r="E112" t="n">
+        <v>0.01568317311529092</v>
+      </c>
+      <c r="F112" t="n">
         <v>0.003919345337933699</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>3.935057482785276</v>
       </c>
     </row>
@@ -3368,12 +3706,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.07350715713409804</v>
+        <v>-0.07350715713409856</v>
       </c>
       <c r="E113" t="n">
+        <v>9.291372495651746e-12</v>
+      </c>
+      <c r="F113" t="n">
         <v>-0.08279934007800599</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>27.83420432522096</v>
       </c>
     </row>
@@ -3394,12 +3735,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.0109774972497006</v>
+        <v>0.01097749724970057</v>
       </c>
       <c r="E114" t="n">
+        <v>0.3140198192967483</v>
+      </c>
+      <c r="F114" t="n">
         <v>0.0007006015927882156</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.8963469093107997</v>
       </c>
     </row>
@@ -3420,12 +3764,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.1186938433219843</v>
+        <v>0.118693843321985</v>
       </c>
       <c r="E115" t="n">
+        <v>1.303341153647003e-28</v>
+      </c>
+      <c r="F115" t="n">
         <v>0.002633240209022239</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.2523834235209608</v>
       </c>
     </row>
@@ -3446,12 +3793,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.2317316727067546</v>
+        <v>0.2317316727067552</v>
       </c>
       <c r="E116" t="n">
+        <v>1.805481541379325e-106</v>
+      </c>
+      <c r="F116" t="n">
         <v>0.1599596609149755</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>6.641180042174229</v>
       </c>
     </row>
@@ -3472,12 +3822,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.01854331440127897</v>
+        <v>0.01854331440127836</v>
       </c>
       <c r="E117" t="n">
+        <v>0.0836475987767664</v>
+      </c>
+      <c r="F117" t="n">
         <v>0.0006987543121364699</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>9.237619896569083</v>
       </c>
     </row>
@@ -3498,12 +3851,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.1103585167029761</v>
+        <v>-0.1103585167029759</v>
       </c>
       <c r="E118" t="n">
+        <v>5.342583789229148e-25</v>
+      </c>
+      <c r="F118" t="n">
         <v>-0.4310553180414484</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>216.8958330458069</v>
       </c>
     </row>
@@ -3524,12 +3880,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.0225453370650523</v>
+        <v>-0.022545337065052</v>
       </c>
       <c r="E119" t="n">
+        <v>0.03542570922439054</v>
+      </c>
+      <c r="F119" t="n">
         <v>-0.007154431313376695</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>100.9518576573169</v>
       </c>
     </row>
@@ -3550,12 +3909,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.005003732328553495</v>
+        <v>0.005003732328553652</v>
       </c>
       <c r="E120" t="n">
+        <v>0.6406522379403531</v>
+      </c>
+      <c r="F120" t="n">
         <v>0.177446002121</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>302.8784411722934</v>
       </c>
     </row>
@@ -3576,12 +3938,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.07401266212163719</v>
+        <v>0.07401266212163528</v>
       </c>
       <c r="E121" t="n">
+        <v>4.727737951185781e-12</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.01928476343564863</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>22.9484270509317</v>
       </c>
     </row>
@@ -3602,12 +3967,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.04111894472142593</v>
+        <v>0.04111894472142601</v>
       </c>
       <c r="E122" t="n">
+        <v>0.0001242963990497391</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.002569358702521611</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.8104272502509748</v>
       </c>
     </row>
@@ -3628,12 +3996,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.05383635797232647</v>
+        <v>0.05383635797232655</v>
       </c>
       <c r="E123" t="n">
+        <v>5.011097871990779e-07</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.06016809759199086</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>1.75144187547797</v>
       </c>
     </row>
@@ -3654,12 +4025,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.1795594507050413</v>
+        <v>0.179559450705039</v>
       </c>
       <c r="E124" t="n">
+        <v>5.511736421723323e-64</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.009544219450233964</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>0.5741110133884025</v>
       </c>
     </row>
@@ -3683,9 +4057,12 @@
         <v>-0.2923663866501925</v>
       </c>
       <c r="E125" t="n">
+        <v>7.150834719709496e-171</v>
+      </c>
+      <c r="F125" t="n">
         <v>-0.05346543738822822</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>5.872981963783358</v>
       </c>
     </row>
@@ -3706,12 +4083,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.05007461158273872</v>
+        <v>0.05007461158273912</v>
       </c>
       <c r="E126" t="n">
+        <v>4.318426017654211e-06</v>
+      </c>
+      <c r="F126" t="n">
         <v>0.01072829360347424</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>2.694559465384926</v>
       </c>
     </row>
@@ -3732,12 +4112,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.02070029716682481</v>
+        <v>-0.0207002971668252</v>
       </c>
       <c r="E127" t="n">
+        <v>0.05355833491083384</v>
+      </c>
+      <c r="F127" t="n">
         <v>-0.2854020360432101</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>162.8493690414555</v>
       </c>
     </row>
@@ -3758,12 +4141,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.05882640316444763</v>
+        <v>-0.05882640316444622</v>
       </c>
       <c r="E128" t="n">
+        <v>4.166070346111396e-08</v>
+      </c>
+      <c r="F128" t="n">
         <v>-0.2618412347621593</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>130.6783905211009</v>
       </c>
     </row>
@@ -3784,12 +4170,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.1021665480415726</v>
+        <v>-0.1021665480415721</v>
       </c>
       <c r="E129" t="n">
+        <v>5.469713813040344e-21</v>
+      </c>
+      <c r="F129" t="n">
         <v>-0.04285660671611786</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>44.37042029060424</v>
       </c>
     </row>
@@ -3810,12 +4199,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.1201085256425931</v>
+        <v>0.1201085256425949</v>
       </c>
       <c r="E130" t="n">
+        <v>2.442212486996178e-29</v>
+      </c>
+      <c r="F130" t="n">
         <v>0.2069532897026106</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>41.73487796518002</v>
       </c>
     </row>
@@ -3836,12 +4228,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.09593366110284721</v>
+        <v>-0.09593366110284782</v>
       </c>
       <c r="E131" t="n">
+        <v>1.103752580646741e-18</v>
+      </c>
+      <c r="F131" t="n">
         <v>-0.01416172866224572</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>14.4492083284901</v>
       </c>
     </row>
@@ -3862,12 +4257,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.04744085728029657</v>
+        <v>0.04744085728029763</v>
       </c>
       <c r="E132" t="n">
+        <v>9.528358578501587e-06</v>
+      </c>
+      <c r="F132" t="n">
         <v>0.001923019638808381</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>4.073247205556052</v>
       </c>
     </row>
@@ -3888,12 +4286,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.1489018802952917</v>
+        <v>-0.1489018802952903</v>
       </c>
       <c r="E133" t="n">
+        <v>1.741767820819831e-43</v>
+      </c>
+      <c r="F133" t="n">
         <v>-0.493610391403579</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>135.0140458886779</v>
       </c>
     </row>
@@ -3914,12 +4315,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.2037593918139403</v>
+        <v>-0.2037593918139442</v>
       </c>
       <c r="E134" t="n">
+        <v>1.484321536536479e-79</v>
+      </c>
+      <c r="F134" t="n">
         <v>-0.1718540931396123</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>40.48377974030507</v>
       </c>
     </row>
@@ -3940,12 +4344,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.1301913879902771</v>
+        <v>0.1301913879902777</v>
       </c>
       <c r="E135" t="n">
+        <v>5.801349456538318e-33</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.02888011999992174</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>28.47226589418623</v>
       </c>
     </row>
@@ -3966,12 +4373,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.001496451379162438</v>
+        <v>0.00149645137916256</v>
       </c>
       <c r="E136" t="n">
+        <v>0.891580537043708</v>
+      </c>
+      <c r="F136" t="n">
         <v>0.0001802318303769768</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>32.58234588965013</v>
       </c>
     </row>
@@ -3992,12 +4402,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.1726415913909412</v>
+        <v>0.172641591390942</v>
       </c>
       <c r="E137" t="n">
+        <v>2.492023645310897e-57</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.1147876257189119</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>85.7083106409289</v>
       </c>
     </row>
@@ -4018,12 +4431,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1758874812152434</v>
+        <v>0.1758874812152452</v>
       </c>
       <c r="E138" t="n">
+        <v>1.9512933808219e-59</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.04061655850486743</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>5.733864357119193</v>
       </c>
     </row>
@@ -4044,12 +4460,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.001073617825512419</v>
+        <v>0.001073617825512607</v>
       </c>
       <c r="E139" t="n">
+        <v>0.9221359865204117</v>
+      </c>
+      <c r="F139" t="n">
         <v>0.0001087963470599624</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>11.2587692476768</v>
       </c>
     </row>
@@ -4070,12 +4489,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.04042862323598909</v>
+        <v>0.04042862323598903</v>
       </c>
       <c r="E140" t="n">
+        <v>0.0001612864747538546</v>
+      </c>
+      <c r="F140" t="n">
         <v>0.01139813804091634</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>138.6901431233505</v>
       </c>
     </row>
@@ -4096,12 +4518,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.1327814315698965</v>
+        <v>0.132781431569899</v>
       </c>
       <c r="E141" t="n">
+        <v>2.093413952443576e-34</v>
+      </c>
+      <c r="F141" t="n">
         <v>0.1225997841104601</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>50.01526616195126</v>
       </c>
     </row>
@@ -4122,12 +4547,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.08871540390047121</v>
+        <v>0.08871540390047074</v>
       </c>
       <c r="E142" t="n">
+        <v>2.049560472128556e-16</v>
+      </c>
+      <c r="F142" t="n">
         <v>10.71191412644417</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-354.3611280806759</v>
       </c>
     </row>
@@ -4148,12 +4576,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.02433677781541718</v>
+        <v>0.02433677781541773</v>
       </c>
       <c r="E143" t="n">
+        <v>0.02670219180348016</v>
+      </c>
+      <c r="F143" t="n">
         <v>0.00590818845061244</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>13.60595039575649</v>
       </c>
     </row>
@@ -4174,12 +4605,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.1047343429117251</v>
+        <v>-0.104734342911726</v>
       </c>
       <c r="E144" t="n">
+        <v>6.083188869201132e-22</v>
+      </c>
+      <c r="F144" t="n">
         <v>-0.6431042137746595</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>271.3522815022092</v>
       </c>
     </row>
@@ -4200,12 +4634,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.2048789737154317</v>
+        <v>-0.2048789737154334</v>
       </c>
       <c r="E145" t="n">
+        <v>1.633133585302969e-80</v>
+      </c>
+      <c r="F145" t="n">
         <v>-0.01050062767103516</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>5.168911011769884</v>
       </c>
     </row>
@@ -4226,12 +4663,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-0.0009433812444672032</v>
+        <v>-0.0009433812444672589</v>
       </c>
       <c r="E146" t="n">
+        <v>0.9310150784338939</v>
+      </c>
+      <c r="F146" t="n">
         <v>-0.0001438858319045605</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>14.26616407012606</v>
       </c>
     </row>
@@ -4252,12 +4692,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.09440929910709275</v>
+        <v>-0.09440929910709364</v>
       </c>
       <c r="E147" t="n">
+        <v>1.076182087204926e-18</v>
+      </c>
+      <c r="F147" t="n">
         <v>-0.7827452247270479</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>206.8836067250109</v>
       </c>
     </row>
@@ -4278,12 +4721,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.235083639776423</v>
+        <v>-0.2350836397764221</v>
       </c>
       <c r="E148" t="n">
+        <v>1.327010149955133e-109</v>
+      </c>
+      <c r="F148" t="n">
         <v>-0.01073721746536788</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>7.599227791364739</v>
       </c>
     </row>
@@ -4304,12 +4750,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.02501957576417991</v>
+        <v>-0.02501957576417999</v>
       </c>
       <c r="E149" t="n">
+        <v>0.02172471432083591</v>
+      </c>
+      <c r="F149" t="n">
         <v>-0.005108961257410138</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>7.450791933487126</v>
       </c>
     </row>
@@ -4330,12 +4779,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.1312418599345602</v>
+        <v>-0.1312418599345638</v>
       </c>
       <c r="E150" t="n">
+        <v>3.484922795876535e-34</v>
+      </c>
+      <c r="F150" t="n">
         <v>-0.08121252809985355</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>7.565302688862118</v>
       </c>
     </row>
@@ -4356,12 +4808,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.276513255814698</v>
+        <v>0.2765132558147028</v>
       </c>
       <c r="E151" t="n">
+        <v>5.603142734272653e-150</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.3590516601131201</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>5.118930631769235</v>
       </c>
     </row>
@@ -4382,12 +4837,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.144202363744667</v>
+        <v>-0.1442023637446665</v>
       </c>
       <c r="E152" t="n">
+        <v>1.900611255569814e-41</v>
+      </c>
+      <c r="F152" t="n">
         <v>-200.3143297261688</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>61638.7545323849</v>
       </c>
     </row>
@@ -4408,12 +4866,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.02390467837007348</v>
+        <v>0.02390467837007345</v>
       </c>
       <c r="E153" t="n">
+        <v>0.0261377059266934</v>
+      </c>
+      <c r="F153" t="n">
         <v>0.009478183484611583</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>3.382188976383693</v>
       </c>
     </row>
@@ -4434,12 +4895,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.04215039180605983</v>
+        <v>-0.0421503918060596</v>
       </c>
       <c r="E154" t="n">
+        <v>8.746187024005667e-05</v>
+      </c>
+      <c r="F154" t="n">
         <v>-2.726444887099329</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>853.2710997156713</v>
       </c>
     </row>
@@ -4460,12 +4924,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.03964915927293222</v>
+        <v>0.03964915927293181</v>
       </c>
       <c r="E155" t="n">
+        <v>0.0002242585042136001</v>
+      </c>
+      <c r="F155" t="n">
         <v>0.2799377584774661</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>-10.27320858434699</v>
       </c>
     </row>
@@ -4486,12 +4953,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.07745364730786142</v>
+        <v>0.07745364730786164</v>
       </c>
       <c r="E156" t="n">
+        <v>5.341287542009588e-13</v>
+      </c>
+      <c r="F156" t="n">
         <v>13.97594341259734</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>1028.279688156087</v>
       </c>
     </row>
@@ -4512,12 +4982,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.1780948894750059</v>
+        <v>-0.1780948894750048</v>
       </c>
       <c r="E157" t="n">
+        <v>1.272258815842088e-62</v>
+      </c>
+      <c r="F157" t="n">
         <v>-0.7157200892667124</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>151.2288315634826</v>
       </c>
     </row>
@@ -4538,12 +5011,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-0.03290317075002034</v>
+        <v>-0.03290317075002035</v>
       </c>
       <c r="E158" t="n">
+        <v>0.01077569321830688</v>
+      </c>
+      <c r="F158" t="n">
         <v>-0.001103810114138649</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>0.9657505969744054</v>
       </c>
     </row>
@@ -4564,12 +5040,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.1022422693825939</v>
+        <v>0.1022422693825933</v>
       </c>
       <c r="E159" t="n">
+        <v>1.081504343116497e-16</v>
+      </c>
+      <c r="F159" t="n">
         <v>0.05437757576777912</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>9.710506432553093</v>
       </c>
     </row>
@@ -4590,12 +5069,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.08917807903991448</v>
+        <v>-0.08917807903991551</v>
       </c>
       <c r="E160" t="n">
+        <v>3.547550250282809e-14</v>
+      </c>
+      <c r="F160" t="n">
         <v>-88.89749973182369</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>41483.88648912971</v>
       </c>
     </row>
@@ -4616,12 +5098,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-0.1630933787993312</v>
+        <v>-0.1630933787993303</v>
       </c>
       <c r="E161" t="n">
+        <v>4.647268882869553e-44</v>
+      </c>
+      <c r="F161" t="n">
         <v>-0.7863673945603601</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>282.0542629222842</v>
       </c>
     </row>
@@ -4642,12 +5127,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.06859156634773585</v>
+        <v>0.06859156634773582</v>
       </c>
       <c r="E162" t="n">
+        <v>6.811650110013303e-10</v>
+      </c>
+      <c r="F162" t="n">
         <v>0.0002337193922333799</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>0.03384503615043836</v>
       </c>
     </row>
@@ -4668,12 +5156,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.07359764521079233</v>
+        <v>0.07359764521079178</v>
       </c>
       <c r="E163" t="n">
+        <v>3.625092664194108e-11</v>
+      </c>
+      <c r="F163" t="n">
         <v>0.000203527177226195</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>0.02262104821215258</v>
       </c>
     </row>
@@ -4694,12 +5185,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.01349575077366496</v>
+        <v>0.01349575077366483</v>
       </c>
       <c r="E164" t="n">
+        <v>0.2254804882795677</v>
+      </c>
+      <c r="F164" t="n">
         <v>8.188944598611039e-06</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>0.006495740227145156</v>
       </c>
     </row>
@@ -4720,12 +5214,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.06754973142028277</v>
+        <v>0.06754973142028299</v>
       </c>
       <c r="E165" t="n">
+        <v>1.228616784685474e-09</v>
+      </c>
+      <c r="F165" t="n">
         <v>0.001104191297118443</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>0.1571286855464885</v>
       </c>
     </row>
@@ -4746,12 +5243,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.04074413766095275</v>
+        <v>0.04074413766095306</v>
       </c>
       <c r="E166" t="n">
+        <v>0.0002497757016366878</v>
+      </c>
+      <c r="F166" t="n">
         <v>1.00002457337104e-05</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>0.0009644963340301958</v>
       </c>
     </row>
@@ -4772,12 +5272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.06623196770798699</v>
+        <v>0.06623196770798735</v>
       </c>
       <c r="E167" t="n">
+        <v>2.558746595410185e-09</v>
+      </c>
+      <c r="F167" t="n">
         <v>0.001054095075567264</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>0.147753851228065</v>
       </c>
     </row>
@@ -4798,12 +5301,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.1254178139362675</v>
+        <v>0.1254178139362687</v>
       </c>
       <c r="E168" t="n">
+        <v>1.120994712681055e-29</v>
+      </c>
+      <c r="F168" t="n">
         <v>0.001904206907329049</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>0.0796571752401006</v>
       </c>
     </row>
@@ -4824,12 +5330,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.1233284935183317</v>
+        <v>0.1233284935183323</v>
       </c>
       <c r="E169" t="n">
+        <v>9.60031261447385e-29</v>
+      </c>
+      <c r="F169" t="n">
         <v>0.001773203953629294</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>0.07812687360426225</v>
       </c>
     </row>
@@ -4850,12 +5359,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.1358588913169171</v>
+        <v>0.1358588913169164</v>
       </c>
       <c r="E170" t="n">
+        <v>1.410281343484477e-34</v>
+      </c>
+      <c r="F170" t="n">
         <v>0.0001919899140220391</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>-0.004950059448948708</v>
       </c>
     </row>
@@ -4876,12 +5388,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.07148385345929317</v>
+        <v>0.07148385345929255</v>
       </c>
       <c r="E171" t="n">
+        <v>7.093307942826487e-11</v>
+      </c>
+      <c r="F171" t="n">
         <v>0.0008196457202220834</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>0.6554518731464529</v>
       </c>
     </row>
@@ -4902,12 +5417,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.1000849314945211</v>
+        <v>-0.1000849314945206</v>
       </c>
       <c r="E172" t="n">
+        <v>6.355846727898993e-20</v>
+      </c>
+      <c r="F172" t="n">
         <v>-0.0009012370745606415</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>0.2225785752653404</v>
       </c>
     </row>
@@ -4928,12 +5446,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.003749134621641174</v>
+        <v>-0.003749134621641056</v>
       </c>
       <c r="E173" t="n">
+        <v>0.7326406047410795</v>
+      </c>
+      <c r="F173" t="n">
         <v>-6.314126574342011e-06</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>0.008565653195574452</v>
       </c>
     </row>
@@ -4954,12 +5475,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.02142507867995059</v>
+        <v>0.02142507867995022</v>
       </c>
       <c r="E174" t="n">
+        <v>0.0508865103098791</v>
+      </c>
+      <c r="F174" t="n">
         <v>0.0001607709032053869</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>0.9216770258142416</v>
       </c>
     </row>
@@ -4980,12 +5504,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.04820595371900565</v>
+        <v>0.04820595371900408</v>
       </c>
       <c r="E175" t="n">
+        <v>1.10778974063807e-05</v>
+      </c>
+      <c r="F175" t="n">
         <v>0.0003320430238430756</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>0.9315174305304834</v>
       </c>
     </row>
@@ -5006,12 +5533,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.08470283625822397</v>
+        <v>0.08470283625822195</v>
       </c>
       <c r="E176" t="n">
+        <v>1.059904801204988e-14</v>
+      </c>
+      <c r="F176" t="n">
         <v>0.0002802776861846929</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>0.01883165985722003</v>
       </c>
     </row>
@@ -5032,12 +5562,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.006920393780001789</v>
+        <v>0.006920393780001619</v>
       </c>
       <c r="E177" t="n">
+        <v>0.5343114794517186</v>
+      </c>
+      <c r="F177" t="n">
         <v>0.000353438474484002</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>0.1337058079392678</v>
       </c>
     </row>
@@ -5058,12 +5591,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.1016097412142979</v>
+        <v>-0.1016097412142994</v>
       </c>
       <c r="E178" t="n">
+        <v>2.539954841803836e-16</v>
+      </c>
+      <c r="F178" t="n">
         <v>-0.0003271700132359964</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>0.05208296923507975</v>
       </c>
     </row>
@@ -5084,12 +5620,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.2972214371114758</v>
+        <v>-0.2972214371114739</v>
       </c>
       <c r="E179" t="n">
+        <v>3.203112378452068e-163</v>
+      </c>
+      <c r="F179" t="n">
         <v>-0.005738028319756588</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>0.7399734884948912</v>
       </c>
     </row>
@@ -5110,12 +5649,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.1108141597176636</v>
+        <v>-0.1108141597176619</v>
       </c>
       <c r="E180" t="n">
+        <v>1.836098165128747e-23</v>
+      </c>
+      <c r="F180" t="n">
         <v>-0.003276453618406565</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>0.5742481037046431</v>
       </c>
     </row>
@@ -5136,12 +5678,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.05267260186743376</v>
+        <v>-0.05267260186743355</v>
       </c>
       <c r="E181" t="n">
+        <v>2.373286538507845e-06</v>
+      </c>
+      <c r="F181" t="n">
         <v>-0.0004527728603757553</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>0.07051406936208451</v>
       </c>
     </row>
@@ -5162,12 +5707,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.2206703988823989</v>
+        <v>-0.2206703988823967</v>
       </c>
       <c r="E182" t="n">
+        <v>1.543227470274436e-89</v>
+      </c>
+      <c r="F182" t="n">
         <v>-0.009741871442420728</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>1.619217625419628</v>
       </c>
     </row>
@@ -5188,12 +5736,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-0.01627284951470561</v>
+        <v>-0.01627284951470555</v>
       </c>
       <c r="E183" t="n">
+        <v>0.1439194938955531</v>
+      </c>
+      <c r="F183" t="n">
         <v>-0.0001309000722936461</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>0.02613267025078948</v>
       </c>
     </row>
@@ -5214,12 +5765,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.02690199969572833</v>
+        <v>0.02690199969572881</v>
       </c>
       <c r="E184" t="n">
+        <v>0.0156853422542843</v>
+      </c>
+      <c r="F184" t="n">
         <v>0.0005464446929090988</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>-0.01345565413229716</v>
       </c>
     </row>
@@ -5240,12 +5794,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.3208696701385569</v>
+        <v>-0.3208696701385553</v>
       </c>
       <c r="E185" t="n">
+        <v>2.196096002100669e-191</v>
+      </c>
+      <c r="F185" t="n">
         <v>-0.002021610925890847</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>0.2061467538807804</v>
       </c>
     </row>
@@ -5266,12 +5823,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.05516556794555705</v>
+        <v>-0.05516556794555743</v>
       </c>
       <c r="E186" t="n">
+        <v>7.717002914753753e-07</v>
+      </c>
+      <c r="F186" t="n">
         <v>-0.001470724605010087</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>0.5155269958083717</v>
       </c>
     </row>
@@ -5292,12 +5852,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.2121882902135961</v>
+        <v>-0.2121882902135923</v>
       </c>
       <c r="E187" t="n">
+        <v>8.925249146986598e-83</v>
+      </c>
+      <c r="F187" t="n">
         <v>-0.01399296407318601</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>2.362387402314039</v>
       </c>
     </row>
@@ -5318,12 +5881,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.09869491738076763</v>
+        <v>-0.09869491738076612</v>
       </c>
       <c r="E188" t="n">
+        <v>6.438039893445475e-19</v>
+      </c>
+      <c r="F188" t="n">
         <v>-0.001180228476040336</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>0.1705384847128424</v>
       </c>
     </row>
@@ -5344,12 +5910,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.06529999964864765</v>
+        <v>-0.06529999964864669</v>
       </c>
       <c r="E189" t="n">
+        <v>2.624739237528288e-09</v>
+      </c>
+      <c r="F189" t="n">
         <v>-0.0003254499693978159</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.09052705352353424</v>
       </c>
     </row>
@@ -5370,12 +5939,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.01747892475960591</v>
+        <v>0.01747892475960607</v>
       </c>
       <c r="E190" t="n">
+        <v>0.1113847615381069</v>
+      </c>
+      <c r="F190" t="n">
         <v>0.0001957681855375255</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>0.2324836599726572</v>
       </c>
     </row>
@@ -5396,12 +5968,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-0.03432377796795694</v>
+        <v>-0.03432377796795723</v>
       </c>
       <c r="E191" t="n">
+        <v>0.001766419452569175</v>
+      </c>
+      <c r="F191" t="n">
         <v>-0.0004420228961054852</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>0.7109738221428159</v>
       </c>
     </row>
@@ -5422,12 +5997,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.1932947775375224</v>
+        <v>-0.1932947775375206</v>
       </c>
       <c r="E192" t="n">
+        <v>1.16447139827737e-70</v>
+      </c>
+      <c r="F192" t="n">
         <v>-0.002420062371985368</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>0.8569987455142282</v>
       </c>
     </row>
@@ -5448,12 +6026,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.03824042938335447</v>
+        <v>-0.0382404293833545</v>
       </c>
       <c r="E193" t="n">
+        <v>0.0004940003822042414</v>
+      </c>
+      <c r="F193" t="n">
         <v>-0.0006194405777824833</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>0.6833105332343126</v>
       </c>
     </row>
@@ -5474,12 +6055,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.0783667384201875</v>
+        <v>0.07836673842018746</v>
       </c>
       <c r="E194" t="n">
+        <v>1.759755047009801e-12</v>
+      </c>
+      <c r="F194" t="n">
         <v>0.0001773196138890345</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>0.02191355189572734</v>
       </c>
     </row>
@@ -5500,12 +6084,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.1561519371447598</v>
+        <v>0.1561519371447596</v>
       </c>
       <c r="E195" t="n">
+        <v>2.969711419977427e-45</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.0003063467832122904</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>0.008876546830113137</v>
       </c>
     </row>
@@ -5526,12 +6113,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.0792119917309248</v>
+        <v>0.07921199173092487</v>
       </c>
       <c r="E196" t="n">
+        <v>1.013869818619249e-12</v>
+      </c>
+      <c r="F196" t="n">
         <v>3.866365871616873e-05</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>0.004661783682743</v>
       </c>
     </row>
@@ -5552,12 +6142,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-0.04936092141037426</v>
+        <v>-0.04936092141037429</v>
       </c>
       <c r="E197" t="n">
+        <v>0.0007546212749304175</v>
+      </c>
+      <c r="F197" t="n">
         <v>-0.005372537406219485</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>6.444294020821411</v>
       </c>
     </row>
@@ -5578,12 +6171,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.1614564551362738</v>
+        <v>0.1614564551362754</v>
       </c>
       <c r="E198" t="n">
+        <v>1.950339046794488e-31</v>
+      </c>
+      <c r="F198" t="n">
         <v>0.2921285012545115</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>32.13012194145246</v>
       </c>
     </row>
@@ -5604,12 +6200,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-0.04723865489992814</v>
+        <v>-0.04723865489992764</v>
       </c>
       <c r="E199" t="n">
+        <v>0.0005568511494920271</v>
+      </c>
+      <c r="F199" t="n">
         <v>-0.2147717970121801</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>197.8443524200121</v>
       </c>
     </row>
@@ -5630,12 +6229,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-0.002220040878045981</v>
+        <v>-0.00222004087804594</v>
       </c>
       <c r="E200" t="n">
+        <v>0.8702364872314035</v>
+      </c>
+      <c r="F200" t="n">
         <v>-0.001102050934279576</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>4.47186004654394</v>
       </c>
     </row>
@@ -5656,12 +6258,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.2354108807428028</v>
+        <v>0.2354108807428044</v>
       </c>
       <c r="E201" t="n">
+        <v>2.581309109476015e-69</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.01215262103352936</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>0.3438841124725722</v>
       </c>
     </row>
